--- a/codes/TEMOA/Temoa/data_files/PuertoRico/PR_FR_test_run_model/test_run.xlsx
+++ b/codes/TEMOA/Temoa/data_files/PuertoRico/PR_FR_test_run_model/test_run.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamiarkhayambashi/Documents/TemoaRepo/Temoa/data_files/TestPuertoRico/sampleBioNoGeoEmission_test_run_model/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06449BF-EBD0-D947-A23F-00C68C3F38AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-22460" yWindow="10540" windowWidth="16100" windowHeight="9660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacity_demand" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,25 @@
     <sheet name="Emissions" sheetId="9" r:id="rId9"/>
     <sheet name="Costs" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="30">
   <si>
     <t>R1</t>
   </si>
@@ -43,9 +62,6 @@
     <t>E_BATT</t>
   </si>
   <si>
-    <t>E_GEO</t>
-  </si>
-  <si>
     <t>E_HYDRO</t>
   </si>
   <si>
@@ -59,6 +75,9 @@
   </si>
   <si>
     <t>E_WIND</t>
+  </si>
+  <si>
+    <t>S_IMPBIO</t>
   </si>
   <si>
     <t>S_IMPNG</t>
@@ -118,8 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +150,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,24 +182,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +246,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -245,6 +280,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,9 +315,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,18 +491,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,7 +527,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -499,22 +535,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>69.249121</v>
+        <v>69.393736000000004</v>
       </c>
       <c r="D2">
-        <v>134.46618</v>
+        <v>135.55927</v>
       </c>
       <c r="E2">
-        <v>198.15161</v>
+        <v>201.09175999999999</v>
       </c>
       <c r="F2">
-        <v>261.32732</v>
+        <v>201.09175999999999</v>
       </c>
       <c r="G2">
-        <v>261.32732</v>
+        <v>266.09476999999998</v>
       </c>
       <c r="H2">
-        <v>261.32732</v>
+        <v>266.09476999999998</v>
       </c>
     </row>
   </sheetData>
@@ -523,20 +559,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -556,12 +590,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -573,18 +607,18 @@
         <v>2025</v>
       </c>
       <c r="F2">
-        <v>11798.95127945604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2150.7051988114608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -593,130 +627,130 @@
         <v>2025</v>
       </c>
       <c r="F3">
-        <v>130842.4341021372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>37.865624237845317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="F4">
-        <v>28943.22193803485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>657.85508322722819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="F5">
-        <v>56946.15411080995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1962.7759144991369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="F6">
-        <v>34166.6151650461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>121.1027302095805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2035</v>
+      </c>
+      <c r="F7">
+        <v>549.45180009580088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2040</v>
+      </c>
+      <c r="F8">
+        <v>319.43662174075342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>2020</v>
-      </c>
-      <c r="F7">
-        <v>211.3246048232752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2020</v>
-      </c>
-      <c r="F8">
-        <v>38.99476986480662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2020</v>
+        <v>2045</v>
       </c>
       <c r="F9">
-        <v>64.26279590284209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>331.20181520380089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -727,373 +761,713 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2045</v>
+      </c>
+      <c r="F10">
+        <v>109.5469774063846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2045</v>
+      </c>
+      <c r="F11">
+        <v>20.322977769344391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2045</v>
+      </c>
+      <c r="F12">
+        <v>30.348604505585591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2049</v>
+      </c>
+      <c r="F13">
+        <v>161.41950030589891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="E14">
+        <v>2020</v>
+      </c>
+      <c r="F14">
+        <v>210.87176638436819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
         <v>2025</v>
       </c>
-      <c r="F10">
-        <v>4465.584298090834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2025</v>
-      </c>
-      <c r="F11">
-        <v>994.6111727418846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
+      <c r="F15">
+        <v>914.61717204690297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2020</v>
+      </c>
+      <c r="F16">
+        <v>39.004720982793224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
         <v>2030</v>
       </c>
-      <c r="F12">
-        <v>391.6755514723142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
+      <c r="F17">
+        <v>204.0540025298088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>2045</v>
+      </c>
+      <c r="F18">
+        <v>107.0062921140668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2020</v>
+      </c>
+      <c r="F19">
+        <v>64.270501312849021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>2030</v>
+      </c>
+      <c r="F20">
+        <v>1237.0797415177101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
         <v>2035</v>
       </c>
-      <c r="F13">
-        <v>215.7622075930327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
+      <c r="F21">
+        <v>350.85636863481972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
         <v>2040</v>
       </c>
-      <c r="F14">
-        <v>98.3773216665343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
+      <c r="F22">
+        <v>206.92545362735419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
         <v>2045</v>
       </c>
-      <c r="F15">
-        <v>31.64916755319201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2049</v>
-      </c>
-      <c r="F16">
-        <v>4.831517947164537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2025</v>
-      </c>
-      <c r="F17">
-        <v>66.91564605957973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>2030</v>
-      </c>
-      <c r="F18">
-        <v>15.78191971645033</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>2035</v>
-      </c>
-      <c r="F19">
-        <v>13.1519428673141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>2040</v>
-      </c>
-      <c r="F20">
-        <v>8.580169563609534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2045</v>
-      </c>
-      <c r="F21">
-        <v>3.637699591338329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>2049</v>
-      </c>
-      <c r="F22">
-        <v>0.3709156460387863</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23">
-        <v>2020</v>
-      </c>
       <c r="F23">
-        <v>99.52642626059622</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>72.090035530296831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>2025</v>
       </c>
       <c r="F24">
-        <v>715.6669986225576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>17.47978661992256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2030</v>
+      </c>
+      <c r="F25">
+        <v>55.904264772104327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2045</v>
+      </c>
+      <c r="F26">
+        <v>7.8103495119918831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>2045</v>
+      </c>
+      <c r="F27">
+        <v>22.452779177508891</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>2049</v>
+      </c>
+      <c r="F28">
+        <v>124.03647196259161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>2025</v>
+      </c>
+      <c r="F29">
+        <v>3084.590146831868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>2030</v>
+      </c>
+      <c r="F30">
+        <v>852.20889989106922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>2035</v>
+      </c>
+      <c r="F31">
+        <v>317.94597728130219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>2040</v>
+      </c>
+      <c r="F32">
+        <v>165.7598771397144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>2045</v>
+      </c>
+      <c r="F33">
+        <v>62.22710744368414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>2020</v>
+      </c>
+      <c r="F34">
+        <v>35.524753144732188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>2025</v>
+      </c>
+      <c r="F35">
+        <v>298.90721343367682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D36" t="s">
         <v>26</v>
       </c>
-      <c r="E25">
+      <c r="E36">
         <v>2020</v>
       </c>
-      <c r="F25">
-        <v>33.84945212219127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="F36">
+        <v>955.09499329823564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E37">
+        <v>2020</v>
+      </c>
+      <c r="F37">
+        <v>1183.0095313676891</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>2045</v>
+      </c>
+      <c r="F38">
+        <v>2.4527493991980389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>2049</v>
+      </c>
+      <c r="F39">
+        <v>7.1118229421722701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40">
         <v>2025</v>
       </c>
-      <c r="F26">
-        <v>904.5155697935476</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F40">
+        <v>14.79203500023355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
         <v>26</v>
       </c>
-      <c r="E27">
-        <v>2020</v>
-      </c>
-      <c r="F27">
-        <v>40.17329253125908</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E41">
+        <v>2030</v>
+      </c>
+      <c r="F41">
+        <v>16.905470300127121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
         <v>26</v>
       </c>
-      <c r="E28">
-        <v>2025</v>
-      </c>
-      <c r="F28">
-        <v>1122.113992862375</v>
+      <c r="E42">
+        <v>2035</v>
+      </c>
+      <c r="F42">
+        <v>5.7702472038933887</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43">
+        <v>2040</v>
+      </c>
+      <c r="F43">
+        <v>22.175980707870739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>2045</v>
+      </c>
+      <c r="F44">
+        <v>11.4620274552073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>2049</v>
+      </c>
+      <c r="F45">
+        <v>38.592770310686269</v>
       </c>
     </row>
   </sheetData>
@@ -1102,18 +1476,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1139,39 +1514,87 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2">
+        <v>8.6873249999999999E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.94021957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3">
+        <v>0.14708966000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.14708966000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4">
+        <v>1.8339518999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5">
+        <v>2.7220304</v>
+      </c>
+      <c r="D5">
+        <v>2.7220304</v>
+      </c>
+      <c r="E5">
+        <v>2.7220304</v>
+      </c>
+      <c r="F5">
+        <v>2.7220304</v>
+      </c>
+      <c r="G5">
+        <v>2.7220304</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1179,51 +1602,33 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.51</v>
+        <v>0.11650000000000001</v>
       </c>
       <c r="D6">
-        <v>0.51</v>
+        <v>1.4239814</v>
       </c>
       <c r="E6">
-        <v>0.51</v>
+        <v>1.4239814</v>
       </c>
       <c r="F6">
-        <v>0.51</v>
+        <v>1.4239814</v>
       </c>
       <c r="G6">
-        <v>0.51</v>
+        <v>5.9708281999999997</v>
       </c>
       <c r="H6">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>5.9708281999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>0.1165</v>
-      </c>
-      <c r="D7">
-        <v>0.1165</v>
-      </c>
-      <c r="E7">
-        <v>0.1165</v>
-      </c>
-      <c r="F7">
-        <v>0.1165</v>
-      </c>
-      <c r="G7">
-        <v>0.1165</v>
-      </c>
-      <c r="H7">
-        <v>0.1165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1231,48 +1636,22 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2.0673908</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D8">
-        <v>2.0673908</v>
+        <v>3.1987926999999998</v>
       </c>
       <c r="E8">
-        <v>2.0673908</v>
+        <v>4.5975621000000002</v>
       </c>
       <c r="F8">
-        <v>2.0673908</v>
+        <v>6.0702034999999999</v>
       </c>
       <c r="G8">
-        <v>2.0673908</v>
+        <v>7.2874043999999998</v>
       </c>
       <c r="H8">
-        <v>2.0673908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.101</v>
-      </c>
-      <c r="D9">
-        <v>0.101</v>
-      </c>
-      <c r="E9">
-        <v>0.101</v>
-      </c>
-      <c r="F9">
-        <v>0.101</v>
-      </c>
-      <c r="G9">
-        <v>0.101</v>
-      </c>
-      <c r="H9">
-        <v>0.101</v>
+        <v>7.2874043999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1281,18 +1660,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1318,56 +1698,64 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>105.73342</v>
+      </c>
+      <c r="D2">
+        <v>353.17160999999999</v>
+      </c>
+      <c r="E2">
+        <v>458.95186999999999</v>
+      </c>
+      <c r="F2">
+        <v>706.39005999999995</v>
+      </c>
+      <c r="G2">
+        <v>996.59621000000004</v>
+      </c>
+      <c r="H2">
+        <v>1286.8024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>31.756699</v>
-      </c>
-      <c r="D2">
-        <v>62.436789</v>
-      </c>
-      <c r="E2">
-        <v>89.45712399999999</v>
-      </c>
-      <c r="F2">
-        <v>115.12341</v>
-      </c>
-      <c r="G2">
-        <v>139.22432</v>
-      </c>
-      <c r="H2">
-        <v>160.82977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>129.65617</v>
+      </c>
+      <c r="D3">
+        <v>258.31234000000001</v>
+      </c>
+      <c r="E3">
+        <v>385.81092000000001</v>
+      </c>
+      <c r="F3">
+        <v>512.95447000000001</v>
+      </c>
+      <c r="G3">
+        <v>634.62179000000003</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="C3">
-        <v>180.27405</v>
-      </c>
-      <c r="D3">
-        <v>360.5481</v>
-      </c>
-      <c r="E3">
-        <v>540.82215</v>
-      </c>
-      <c r="F3">
-        <v>721.0962</v>
-      </c>
-      <c r="G3">
-        <v>901.37024</v>
-      </c>
-      <c r="H3">
-        <v>1081.6443</v>
       </c>
     </row>
   </sheetData>
@@ -1376,18 +1764,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1800,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1421,25 +1808,25 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>74.760462</v>
+        <v>3.08</v>
       </c>
       <c r="D2">
-        <v>74.760462</v>
+        <v>3.08</v>
       </c>
       <c r="E2">
-        <v>74.760462</v>
+        <v>3.08</v>
       </c>
       <c r="F2">
-        <v>74.760462</v>
+        <v>3.08</v>
       </c>
       <c r="G2">
-        <v>74.760462</v>
+        <v>3.08</v>
       </c>
       <c r="H2">
-        <v>74.760462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1447,25 +1834,25 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="D3">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="E3">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="F3">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="G3">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="H3">
-        <v>69.249121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1473,25 +1860,25 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="D4">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="E4">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="F4">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="G4">
-        <v>69.249121</v>
+        <v>2.8</v>
       </c>
       <c r="H4">
-        <v>69.249121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1499,22 +1886,22 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>74.46142</v>
+        <v>3.08</v>
       </c>
       <c r="D5">
-        <v>74.46142</v>
+        <v>3.08</v>
       </c>
       <c r="E5">
-        <v>74.46142</v>
+        <v>3.08</v>
       </c>
       <c r="F5">
-        <v>74.46142</v>
+        <v>3.08</v>
       </c>
       <c r="G5">
-        <v>74.46142</v>
+        <v>3.08</v>
       </c>
       <c r="H5">
-        <v>74.46142</v>
+        <v>3.08</v>
       </c>
     </row>
   </sheetData>
@@ -1523,18 +1910,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1560,7 +1946,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1568,22 +1954,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>69.24912100402599</v>
+        <v>68.962076098849948</v>
       </c>
       <c r="D2">
-        <v>69.21705958342601</v>
+        <v>70.165531331449955</v>
       </c>
       <c r="E2">
-        <v>67.68542567682599</v>
+        <v>69.681072200249957</v>
       </c>
       <c r="F2">
-        <v>67.17571417302599</v>
+        <v>69.532489763249998</v>
       </c>
       <c r="G2">
-        <v>66.46362410322601</v>
+        <v>69.393734863649968</v>
       </c>
       <c r="H2">
-        <v>65.41925690662599</v>
+        <v>69.003010981449989</v>
       </c>
     </row>
   </sheetData>
@@ -1592,18 +1978,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1629,39 +2016,84 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2">
+        <v>0.94363092700000006</v>
+      </c>
+      <c r="H2">
+        <v>14.875687725000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3">
+        <v>0.88491804655499995</v>
+      </c>
+      <c r="H3">
+        <v>0.75494711195599995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C4">
+        <v>0.28342992367700021</v>
+      </c>
+      <c r="D4">
+        <v>1.5908683537815</v>
+      </c>
+      <c r="E4">
+        <v>1.588936006393</v>
+      </c>
+      <c r="F4">
+        <v>1.5242611704935001</v>
+      </c>
+      <c r="G4">
+        <v>1.5444347626970001</v>
+      </c>
+      <c r="H4">
+        <v>1.5827540524470001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5">
+        <v>73.447457724509974</v>
+      </c>
+      <c r="D5">
+        <v>44.887364728000009</v>
+      </c>
+      <c r="E5">
+        <v>36.433327097999999</v>
+      </c>
+      <c r="F5">
+        <v>27.955205039999999</v>
+      </c>
+      <c r="G5">
+        <v>14.109559929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1669,51 +2101,33 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>13.1324834455</v>
+        <v>0.46753051492600001</v>
       </c>
       <c r="D6">
-        <v>13.09762652083</v>
+        <v>5.432909246226</v>
       </c>
       <c r="E6">
-        <v>11.43243765513</v>
+        <v>5.2665327389260002</v>
       </c>
       <c r="F6">
-        <v>10.8782804815</v>
+        <v>5.3292240180660002</v>
       </c>
       <c r="G6">
-        <v>10.10409794729</v>
+        <v>17.915345624926001</v>
       </c>
       <c r="H6">
-        <v>8.968664241599999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20.207334731926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>0.377770976644</v>
-      </c>
-      <c r="D7">
-        <v>0.377770976644</v>
-      </c>
-      <c r="E7">
-        <v>0.377770976644</v>
-      </c>
-      <c r="F7">
-        <v>0.377770976644</v>
-      </c>
-      <c r="G7">
-        <v>0.377770976644</v>
-      </c>
-      <c r="H7">
-        <v>0.377770976644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1721,48 +2135,22 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>61.29317660720001</v>
+        <v>0.77698234390399967</v>
       </c>
       <c r="D8">
-        <v>61.29317660720001</v>
+        <v>24.37265173117401</v>
       </c>
       <c r="E8">
-        <v>61.29317660720001</v>
+        <v>32.468294646103992</v>
       </c>
       <c r="F8">
-        <v>61.29317660720001</v>
+        <v>40.786862751383993</v>
       </c>
       <c r="G8">
-        <v>61.29317660720001</v>
+        <v>41.087889779494994</v>
       </c>
       <c r="H8">
-        <v>61.29317660720001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.4840436941840002</v>
-      </c>
-      <c r="D9">
-        <v>0.4840436941840002</v>
-      </c>
-      <c r="E9">
-        <v>0.4840436941840002</v>
-      </c>
-      <c r="F9">
-        <v>0.4840436941840002</v>
-      </c>
-      <c r="G9">
-        <v>0.4840436941840002</v>
-      </c>
-      <c r="H9">
-        <v>0.4840436941840002</v>
+        <v>38.487353748111993</v>
       </c>
     </row>
   </sheetData>
@@ -1771,18 +2159,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1808,56 +2197,49 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>3.7297665119999999</v>
+      </c>
+      <c r="H2">
+        <v>58.797184970000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>28.86260073778</v>
-      </c>
-      <c r="D2">
-        <v>28.78599237888</v>
-      </c>
-      <c r="E2">
-        <v>25.126236413</v>
-      </c>
-      <c r="F2">
-        <v>23.90830878917999</v>
-      </c>
-      <c r="G2">
-        <v>22.20680858328</v>
-      </c>
-      <c r="H2">
-        <v>19.7113500796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>125.9209782608</v>
+      </c>
+      <c r="D3">
+        <v>73.558648660000003</v>
+      </c>
+      <c r="E3">
+        <v>59.642147379999997</v>
+      </c>
+      <c r="F3">
+        <v>45.725646040000001</v>
+      </c>
+      <c r="G3">
+        <v>22.862823056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="C3">
-        <v>180.2740473526</v>
-      </c>
-      <c r="D3">
-        <v>180.2740473526</v>
-      </c>
-      <c r="E3">
-        <v>180.2740473526</v>
-      </c>
-      <c r="F3">
-        <v>180.2740473526</v>
-      </c>
-      <c r="G3">
-        <v>180.2740473526</v>
-      </c>
-      <c r="H3">
-        <v>180.2740473526</v>
       </c>
     </row>
   </sheetData>
@@ -1866,18 +2248,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1903,7 +2284,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1911,25 +2292,25 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>74.76046234582797</v>
+        <v>74.450573296400009</v>
       </c>
       <c r="D2">
-        <v>74.72584975502799</v>
+        <v>75.749807856599972</v>
       </c>
       <c r="E2">
-        <v>73.07231677892801</v>
+        <v>75.226790658000027</v>
       </c>
       <c r="F2">
-        <v>72.52203886304798</v>
+        <v>75.066384543000012</v>
       </c>
       <c r="G2">
-        <v>71.75327527778799</v>
+        <v>74.916586816200024</v>
       </c>
       <c r="H2">
-        <v>70.625789590628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>74.494765376799947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1937,25 +2318,25 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>69.24912111434399</v>
+        <v>68.962076434799982</v>
       </c>
       <c r="D3">
-        <v>69.21705990654402</v>
+        <v>70.165531865200009</v>
       </c>
       <c r="E3">
-        <v>67.68542562374402</v>
+        <v>69.681072896199979</v>
       </c>
       <c r="F3">
-        <v>67.17571419094401</v>
+        <v>69.532490277400001</v>
       </c>
       <c r="G3">
-        <v>66.46362398959602</v>
+        <v>69.393734999800003</v>
       </c>
       <c r="H3">
-        <v>65.41925684674401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>69.0030116776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1963,25 +2344,25 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>69.24912111434399</v>
+        <v>68.962076434799982</v>
       </c>
       <c r="D4">
-        <v>69.21705971554402</v>
+        <v>70.165531865200009</v>
       </c>
       <c r="E4">
-        <v>67.68542540694403</v>
+        <v>69.681072896199979</v>
       </c>
       <c r="F4">
-        <v>67.175714505344</v>
+        <v>69.532490277400001</v>
       </c>
       <c r="G4">
-        <v>66.46362421334402</v>
+        <v>69.393734999800003</v>
       </c>
       <c r="H4">
-        <v>65.419256818744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>69.0030116776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1989,22 +2370,22 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>74.461420516228</v>
+        <v>74.152770339200032</v>
       </c>
       <c r="D5">
-        <v>74.42694601922801</v>
+        <v>75.446808066400024</v>
       </c>
       <c r="E5">
-        <v>72.780027384828</v>
+        <v>74.925883314399982</v>
       </c>
       <c r="F5">
-        <v>72.231950913028</v>
+        <v>74.766118824000003</v>
       </c>
       <c r="G5">
-        <v>71.46626241062799</v>
+        <v>74.616919573400011</v>
       </c>
       <c r="H5">
-        <v>70.343286738028</v>
+        <v>74.196786433799986</v>
       </c>
     </row>
   </sheetData>
@@ -2013,20 +2394,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2055,10 +2436,10 @@
         <v>2045</v>
       </c>
       <c r="J1" s="1">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2072,22 +2453,51 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>1451.788817110333</v>
+        <v>6333.8252065182387</v>
       </c>
       <c r="F2">
-        <v>1447.935416657664</v>
+        <v>3700.0000275980001</v>
       </c>
       <c r="G2">
-        <v>1263.8496915739</v>
+        <v>3000.000013213999</v>
       </c>
       <c r="H2">
-        <v>1202.587932095754</v>
+        <v>2299.9999958120002</v>
       </c>
       <c r="I2">
-        <v>1117.002471738984</v>
-      </c>
-      <c r="J2">
-        <v>839.2284763199699</v>
+        <v>1149.9999997167999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>46.568186247450008</v>
+      </c>
+      <c r="J3">
+        <v>734.11518922875007</v>
       </c>
     </row>
   </sheetData>
